--- a/data/trans_orig/P45C-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P45C-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>406551</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>387677</v>
+        <v>390642</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>419694</v>
+        <v>422175</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8581076570516784</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8182699537307233</v>
+        <v>0.8245283872165585</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8858479930855546</v>
+        <v>0.8910861243230309</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>249</v>
@@ -765,19 +765,19 @@
         <v>256257</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>240188</v>
+        <v>242120</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>267139</v>
+        <v>267642</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.838354577850455</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7857819649697517</v>
+        <v>0.7921025583923249</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8739555945818225</v>
+        <v>0.8756004953128789</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>639</v>
@@ -786,19 +786,19 @@
         <v>662809</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>641505</v>
+        <v>640324</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>682250</v>
+        <v>684203</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8503612732830521</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8230292557327232</v>
+        <v>0.8215136087318961</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8753038490445041</v>
+        <v>0.8778086764227164</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>59662</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>47406</v>
+        <v>46229</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>76859</v>
+        <v>75105</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1259295722545438</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1000605564625291</v>
+        <v>0.0975745946134826</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1622273885977641</v>
+        <v>0.1585251459212965</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>44</v>
@@ -836,19 +836,19 @@
         <v>45344</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>34866</v>
+        <v>34382</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>60301</v>
+        <v>59505</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1483452489523732</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1140644920631804</v>
+        <v>0.1124822880729947</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1972781421647377</v>
+        <v>0.1946728133749663</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>102</v>
@@ -857,19 +857,19 @@
         <v>105007</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>87263</v>
+        <v>85603</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>125311</v>
+        <v>126813</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1347201224450218</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1119560102294386</v>
+        <v>0.1098259368385041</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1607703229909656</v>
+        <v>0.1626962388880807</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>7563</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3303</v>
+        <v>3289</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15787</v>
+        <v>15174</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01596277069377785</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.006971054630776832</v>
+        <v>0.00694275636859296</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03332142212619917</v>
+        <v>0.03202781954280816</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -907,19 +907,19 @@
         <v>4065</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>9376</v>
+        <v>9874</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01330017319717174</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.003288926217733401</v>
+        <v>0.003269600374240697</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0306737123529114</v>
+        <v>0.03230263519815954</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>11</v>
@@ -928,19 +928,19 @@
         <v>11628</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>5928</v>
+        <v>5391</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>21157</v>
+        <v>19902</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01491860427192615</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.007604915032826741</v>
+        <v>0.006916089399321219</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02714342101114034</v>
+        <v>0.02553420873244588</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>308789</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>292534</v>
+        <v>293696</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>320926</v>
+        <v>321680</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8415375198857663</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7972382248540133</v>
+        <v>0.8004045564301858</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8746148433554548</v>
+        <v>0.8766694816460294</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>301</v>
@@ -1053,19 +1053,19 @@
         <v>310982</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>294782</v>
+        <v>296326</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>322959</v>
+        <v>323843</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8362776586975884</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7927121023017026</v>
+        <v>0.796863216022639</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8684853439253225</v>
+        <v>0.8708615306043096</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>594</v>
@@ -1074,19 +1074,19 @@
         <v>619771</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>600437</v>
+        <v>599136</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>638849</v>
+        <v>638197</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8388900372021607</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8127201400027544</v>
+        <v>0.8109596049770897</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8647131530209138</v>
+        <v>0.863830641653086</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>54698</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>42775</v>
+        <v>42189</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>69569</v>
+        <v>69260</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1490671858078464</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1165737898974376</v>
+        <v>0.1149763672423845</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1895946973418574</v>
+        <v>0.1887532490144057</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>55</v>
@@ -1124,19 +1124,19 @@
         <v>55044</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>43297</v>
+        <v>42071</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>70621</v>
+        <v>69383</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1480213197476438</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1164327439013684</v>
+        <v>0.1131352274717799</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1899094857144879</v>
+        <v>0.186581409656246</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>109</v>
@@ -1145,19 +1145,19 @@
         <v>109742</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>91091</v>
+        <v>92619</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>128891</v>
+        <v>129311</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1485407627360778</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1232956141026436</v>
+        <v>0.1253643232109272</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1744598331773401</v>
+        <v>0.175028734794942</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>3447</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9249</v>
+        <v>9880</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009395294306387268</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002417832690978772</v>
+        <v>0.002432951566035213</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02520709342763932</v>
+        <v>0.02692635353155508</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1195,19 +1195,19 @@
         <v>5839</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2011</v>
+        <v>2819</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11636</v>
+        <v>12772</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01570102155476774</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005409012283563277</v>
+        <v>0.007579522703361261</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03129126985739267</v>
+        <v>0.03434456970347494</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -1216,19 +1216,19 @@
         <v>9286</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4552</v>
+        <v>4447</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>18199</v>
+        <v>17670</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01256920006176145</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006160790526685789</v>
+        <v>0.006019178234955659</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02463263681972713</v>
+        <v>0.0239176668030399</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>436635</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>417147</v>
+        <v>414613</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>453736</v>
+        <v>453150</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8078031430128845</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7717498216554395</v>
+        <v>0.7670616070906429</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8394427041486029</v>
+        <v>0.8383578906682277</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>140</v>
@@ -1341,19 +1341,19 @@
         <v>144409</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>134077</v>
+        <v>135358</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>152035</v>
+        <v>152646</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8606967004468464</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7991134945642456</v>
+        <v>0.8067488435678888</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9061462666200952</v>
+        <v>0.9097898027748211</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>568</v>
@@ -1362,19 +1362,19 @@
         <v>581044</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>558716</v>
+        <v>559757</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>600598</v>
+        <v>599361</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8203324998369228</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7888099099348911</v>
+        <v>0.790279401646285</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8479397354267715</v>
+        <v>0.8461926741855774</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>87742</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>72254</v>
+        <v>72306</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>106142</v>
+        <v>108463</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1623286816142738</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1336740719859935</v>
+        <v>0.1337712624445247</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1963695564562379</v>
+        <v>0.2006647201526897</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -1412,19 +1412,19 @@
         <v>17327</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10733</v>
+        <v>10460</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>25598</v>
+        <v>26022</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1032733893966216</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06396804368418593</v>
+        <v>0.06234412158190079</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1525690751784438</v>
+        <v>0.1550962604189025</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>105</v>
@@ -1433,19 +1433,19 @@
         <v>105069</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>87754</v>
+        <v>88284</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>124034</v>
+        <v>125642</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1483397410997959</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1238934004554304</v>
+        <v>0.1246411457501307</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1751142824429079</v>
+        <v>0.177384033761366</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>16144</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9428</v>
+        <v>9225</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>25710</v>
+        <v>26393</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02986817537284169</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01744171110920365</v>
+        <v>0.01706664959263466</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0475653158883353</v>
+        <v>0.04882842270043523</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -1483,19 +1483,19 @@
         <v>6045</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2064</v>
+        <v>2091</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>12090</v>
+        <v>12063</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03602991015653195</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01230286750339411</v>
+        <v>0.01246307555997668</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07205489948819067</v>
+        <v>0.07189433490112986</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>21</v>
@@ -1504,19 +1504,19 @@
         <v>22190</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>13563</v>
+        <v>13835</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>32907</v>
+        <v>33471</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03132775906328134</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01914887606280013</v>
+        <v>0.01953221545802305</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04645926453050014</v>
+        <v>0.04725552954336393</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>1062208</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1038236</v>
+        <v>1036332</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1086939</v>
+        <v>1085374</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8599227322495256</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8405153643974492</v>
+        <v>0.8389746063526617</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8799433555987944</v>
+        <v>0.8786763723172664</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>600</v>
@@ -1629,19 +1629,19 @@
         <v>618970</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>601438</v>
+        <v>599142</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>636099</v>
+        <v>635662</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8703896992365883</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8457363438509193</v>
+        <v>0.8425083667838984</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8944763687711272</v>
+        <v>0.8938625671895488</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1652</v>
@@ -1650,19 +1650,19 @@
         <v>1681178</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1649080</v>
+        <v>1651397</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1710253</v>
+        <v>1711744</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8637470110899351</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8472556416894818</v>
+        <v>0.8484464214458322</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8786850656857256</v>
+        <v>0.8794507564023426</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>153446</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>132382</v>
+        <v>131956</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>178040</v>
+        <v>177613</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1242243357903604</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1071712733744761</v>
+        <v>0.1068264028685985</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1441342160741697</v>
+        <v>0.1437888117092082</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>76</v>
@@ -1700,19 +1700,19 @@
         <v>76562</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>61129</v>
+        <v>61169</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>93350</v>
+        <v>94541</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1076602689557545</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08595835768107062</v>
+        <v>0.08601598840871649</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1312680163838774</v>
+        <v>0.1329431133571617</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>227</v>
@@ -1721,19 +1721,19 @@
         <v>230008</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>202960</v>
+        <v>200763</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>259957</v>
+        <v>259735</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1181723810660351</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1042759822549239</v>
+        <v>0.1031468457495586</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1335593973467683</v>
+        <v>0.1334451953154688</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>19582</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11803</v>
+        <v>11527</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>30627</v>
+        <v>30696</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01585293196011396</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.009555309038097636</v>
+        <v>0.009331674587212461</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02479410298537295</v>
+        <v>0.02485011168611045</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>15</v>
@@ -1771,19 +1771,19 @@
         <v>15610</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>8825</v>
+        <v>9032</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>24586</v>
+        <v>25730</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.0219500318076572</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0124099251871101</v>
+        <v>0.01270061652266962</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03457209536115567</v>
+        <v>0.03618082339335754</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>33</v>
@@ -1792,19 +1792,19 @@
         <v>35192</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>24016</v>
+        <v>24903</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>50217</v>
+        <v>49241</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01808060784402986</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01233885775045128</v>
+        <v>0.01279428262729083</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.025800230614644</v>
+        <v>0.02529874627244444</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>304447</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>292018</v>
+        <v>290622</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>315982</v>
+        <v>315770</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8709997415570969</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8354427527700249</v>
+        <v>0.8314493027436924</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9040014353024409</v>
+        <v>0.9033962772268498</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>493</v>
@@ -1917,19 +1917,19 @@
         <v>520708</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>505282</v>
+        <v>505057</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>533722</v>
+        <v>533621</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9167209311489306</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8895625856222815</v>
+        <v>0.8891667318817558</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.939631917999878</v>
+        <v>0.9394536505935125</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>787</v>
@@ -1938,19 +1938,19 @@
         <v>825155</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>806016</v>
+        <v>805611</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>841831</v>
+        <v>842030</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8993036053581622</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8784442423727614</v>
+        <v>0.8780036604023777</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9174778803480377</v>
+        <v>0.9176943358090173</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>40279</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>28953</v>
+        <v>29264</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>52570</v>
+        <v>53018</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1152353782439971</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0828324215289913</v>
+        <v>0.08372194306848704</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1503988358708112</v>
+        <v>0.1516796456957893</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>37</v>
@@ -1988,19 +1988,19 @@
         <v>38060</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>26504</v>
+        <v>27159</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>52108</v>
+        <v>51759</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06700479984115193</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04666163271780887</v>
+        <v>0.0478148321269781</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.09173699195730842</v>
+        <v>0.09112333789661867</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>76</v>
@@ -2009,19 +2009,19 @@
         <v>78339</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>62046</v>
+        <v>62329</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>96710</v>
+        <v>96301</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.08537806844196699</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06762091996099182</v>
+        <v>0.06792942853649057</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.105400194089686</v>
+        <v>0.1049547525186882</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>4811</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1818</v>
+        <v>1823</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>10835</v>
+        <v>10590</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.013764880198906</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.00520114902760305</v>
+        <v>0.005214624742680279</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03099694024018658</v>
+        <v>0.03029584240477649</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>8</v>
@@ -2059,19 +2059,19 @@
         <v>9244</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3898</v>
+        <v>4485</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>17098</v>
+        <v>19677</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01627426900991744</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.006861779103927923</v>
+        <v>0.007895984275058384</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03010204178585285</v>
+        <v>0.03464196407850095</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>14</v>
@@ -2080,19 +2080,19 @@
         <v>14055</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>7741</v>
+        <v>7312</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>23845</v>
+        <v>23261</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01531832619987075</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.008436158012191218</v>
+        <v>0.007968976032725032</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0259880172772756</v>
+        <v>0.0253513758937216</v>
       </c>
     </row>
     <row r="23">
@@ -2184,19 +2184,19 @@
         <v>230414</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>215830</v>
+        <v>215455</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>244106</v>
+        <v>243715</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.7771010746100351</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.7279141246519281</v>
+        <v>0.7266503189154792</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8232793596078049</v>
+        <v>0.8219592239905071</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1084</v>
@@ -2205,19 +2205,19 @@
         <v>1099656</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1074813</v>
+        <v>1078232</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1120466</v>
+        <v>1122487</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.8829325501189158</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.8629857834498821</v>
+        <v>0.8657308995790993</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8996406400096606</v>
+        <v>0.9012636628025258</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1320</v>
@@ -2226,19 +2226,19 @@
         <v>1330071</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1302715</v>
+        <v>1303892</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1354592</v>
+        <v>1354964</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.8625821381881464</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.8448410810126593</v>
+        <v>0.8456049347598258</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.8784846205241423</v>
+        <v>0.8787263947421401</v>
       </c>
     </row>
     <row r="25">
@@ -2255,19 +2255,19 @@
         <v>62498</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>49092</v>
+        <v>48993</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>76252</v>
+        <v>76453</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.21078120631273</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1655686104765088</v>
+        <v>0.1652342969919036</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2571682855728919</v>
+        <v>0.2578466703320257</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>136</v>
@@ -2276,19 +2276,19 @@
         <v>130254</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>111228</v>
+        <v>109856</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>153672</v>
+        <v>150727</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1045834538672231</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0893065617845636</v>
+        <v>0.08820542023361973</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1233856997041358</v>
+        <v>0.1210214944852724</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>201</v>
@@ -2297,19 +2297,19 @@
         <v>192752</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>168176</v>
+        <v>171647</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>217376</v>
+        <v>217939</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1250042974583774</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1090659795818602</v>
+        <v>0.1113169825675092</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1409736764242033</v>
+        <v>0.141338328468135</v>
       </c>
     </row>
     <row r="26">
@@ -2326,19 +2326,19 @@
         <v>3593</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>10962</v>
+        <v>11217</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.012117719077235</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.002979605819402291</v>
+        <v>0.002945213706427809</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03696926496336354</v>
+        <v>0.03783129853225238</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>15</v>
@@ -2347,19 +2347,19 @@
         <v>15548</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>9801</v>
+        <v>8661</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>26878</v>
+        <v>24754</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01248399601386112</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.007869141044536171</v>
+        <v>0.006953715880414455</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02158109718806322</v>
+        <v>0.01987549334722694</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>18</v>
@@ -2368,19 +2368,19 @@
         <v>19141</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>11937</v>
+        <v>12064</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>30709</v>
+        <v>30294</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01241356435347615</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.007741717009420464</v>
+        <v>0.007823765521639799</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01991530717986331</v>
+        <v>0.01964628662345006</v>
       </c>
     </row>
     <row r="27">
@@ -2472,19 +2472,19 @@
         <v>2749044</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2706870</v>
+        <v>2706170</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2786511</v>
+        <v>2789427</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8426160950179473</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8296892568956548</v>
+        <v>0.8294747299035976</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8541002151979619</v>
+        <v>0.8549940292240644</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2867</v>
@@ -2493,19 +2493,19 @@
         <v>2950984</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2911477</v>
+        <v>2911893</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2988849</v>
+        <v>2990662</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.8756820484352065</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.8639586479067988</v>
+        <v>0.8640822526815926</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8869183823589241</v>
+        <v>0.8874562917723413</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5560</v>
@@ -2514,19 +2514,19 @@
         <v>5700028</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5640082</v>
+        <v>5641778</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5751335</v>
+        <v>5756664</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.8594168292741564</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.8503785829901459</v>
+        <v>0.8506342583006167</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8671525606464801</v>
+        <v>0.8679560646423617</v>
       </c>
     </row>
     <row r="29">
@@ -2543,19 +2543,19 @@
         <v>458326</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>422942</v>
+        <v>422080</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>501359</v>
+        <v>502018</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1404824897422975</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1296368941436385</v>
+        <v>0.1293728921985462</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1536726384530445</v>
+        <v>0.153874671904377</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>366</v>
@@ -2564,19 +2564,19 @@
         <v>362591</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>329329</v>
+        <v>326865</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>400760</v>
+        <v>398611</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1075961866726204</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.09772579903049437</v>
+        <v>0.09699480377180347</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1189224637194986</v>
+        <v>0.1182848330465458</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>820</v>
@@ -2585,19 +2585,19 @@
         <v>820917</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>771575</v>
+        <v>763013</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>877629</v>
+        <v>876494</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1237730354111121</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1163335312294726</v>
+        <v>0.1150426380080243</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1323237159501092</v>
+        <v>0.1321526358749928</v>
       </c>
     </row>
     <row r="30">
@@ -2614,19 +2614,19 @@
         <v>55141</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>42212</v>
+        <v>40952</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>72678</v>
+        <v>73465</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01690141523975516</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01293844079920522</v>
+        <v>0.01255227351946628</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.02227682128258372</v>
+        <v>0.02251791488442865</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>55</v>
@@ -2635,19 +2635,19 @@
         <v>56351</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>42876</v>
+        <v>42286</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>74824</v>
+        <v>73489</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01672176489217306</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01272324367898972</v>
+        <v>0.0125479843711491</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02220350700063974</v>
+        <v>0.02180733434412348</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>107</v>
@@ -2656,19 +2656,19 @@
         <v>111492</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>89621</v>
+        <v>92079</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>133070</v>
+        <v>134186</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01681013531473152</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01351250802978839</v>
+        <v>0.01388312153087283</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02006348098304291</v>
+        <v>0.02023170414043588</v>
       </c>
     </row>
     <row r="31">
@@ -3002,19 +3002,19 @@
         <v>346389</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>327540</v>
+        <v>326633</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>362572</v>
+        <v>361948</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7941050849004434</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7508936053356856</v>
+        <v>0.7488142786711085</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.831205541870626</v>
+        <v>0.8297751908771357</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>241</v>
@@ -3023,19 +3023,19 @@
         <v>271138</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>258882</v>
+        <v>256467</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>282935</v>
+        <v>281569</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8676680159345863</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8284483404925151</v>
+        <v>0.8207202181419964</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9054215976343664</v>
+        <v>0.9010494661899003</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>558</v>
@@ -3044,19 +3044,19 @@
         <v>617526</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>593598</v>
+        <v>596370</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>637139</v>
+        <v>639357</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.824808927515073</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7928493389201423</v>
+        <v>0.7965509682968186</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8510051465220215</v>
+        <v>0.8539673356862233</v>
       </c>
     </row>
     <row r="5">
@@ -3073,19 +3073,19 @@
         <v>81416</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>66163</v>
+        <v>66354</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>100381</v>
+        <v>99841</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1866481691764565</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1516804891426294</v>
+        <v>0.1521189811247359</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2301266799644375</v>
+        <v>0.2288889895819002</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>36</v>
@@ -3094,19 +3094,19 @@
         <v>37326</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>25724</v>
+        <v>26856</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>48677</v>
+        <v>50919</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1194473086858586</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08231939788623506</v>
+        <v>0.08594194673535066</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1557699302449637</v>
+        <v>0.1629454178896206</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>115</v>
@@ -3115,19 +3115,19 @@
         <v>118742</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>99873</v>
+        <v>99152</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>140367</v>
+        <v>140254</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1585997402318113</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1333974790579403</v>
+        <v>0.1324333211187861</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.187483810818565</v>
+        <v>0.187332964549514</v>
       </c>
     </row>
     <row r="6">
@@ -3144,19 +3144,19 @@
         <v>8395</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3564</v>
+        <v>3374</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17091</v>
+        <v>17042</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01924674592310003</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.008171479867591378</v>
+        <v>0.007734353002172171</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03918132124596045</v>
+        <v>0.039070193214989</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -3165,19 +3165,19 @@
         <v>4026</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1040</v>
+        <v>1045</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10076</v>
+        <v>10397</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01288467537955506</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.003327894818257801</v>
+        <v>0.003344487284461701</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03224462556778228</v>
+        <v>0.03327024497806078</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>11</v>
@@ -3186,19 +3186,19 @@
         <v>12422</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>6951</v>
+        <v>6232</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>22753</v>
+        <v>21894</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01659133225311573</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.00928375860034278</v>
+        <v>0.008323938104664768</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03039107132739765</v>
+        <v>0.0292426783472806</v>
       </c>
     </row>
     <row r="7">
@@ -3290,19 +3290,19 @@
         <v>352685</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>336160</v>
+        <v>335646</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>366092</v>
+        <v>365995</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8570313348509917</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8168762331171627</v>
+        <v>0.8156276981494746</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8896120533259111</v>
+        <v>0.8893767402010482</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>253</v>
@@ -3311,19 +3311,19 @@
         <v>278931</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>263989</v>
+        <v>264223</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>292841</v>
+        <v>293472</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8326386579654343</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.788035489187398</v>
+        <v>0.7887339691995067</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8741627803540172</v>
+        <v>0.8760453321733035</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>567</v>
@@ -3332,19 +3332,19 @@
         <v>631615</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>606897</v>
+        <v>609375</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>650635</v>
+        <v>650107</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8460852172333221</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8129742252704473</v>
+        <v>0.8162931143206548</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8715634016207785</v>
+        <v>0.8708557848777392</v>
       </c>
     </row>
     <row r="9">
@@ -3361,19 +3361,19 @@
         <v>53478</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>40015</v>
+        <v>40874</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>67965</v>
+        <v>69841</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1299518012031881</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.09723753542339261</v>
+        <v>0.09932545002851552</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1651556561681851</v>
+        <v>0.1697146013280766</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>41</v>
@@ -3382,19 +3382,19 @@
         <v>47254</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>34405</v>
+        <v>34452</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>63701</v>
+        <v>61993</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1410590868738364</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1027032113147554</v>
+        <v>0.1028417992624661</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1901551050251689</v>
+        <v>0.1850551022642693</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>90</v>
@@ -3403,19 +3403,19 @@
         <v>100732</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>82276</v>
+        <v>82443</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>122742</v>
+        <v>122519</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1349361518726286</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1102139856830019</v>
+        <v>0.1104372572757432</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1644199319388882</v>
+        <v>0.1641209644686155</v>
       </c>
     </row>
     <row r="10">
@@ -3432,19 +3432,19 @@
         <v>5357</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1158</v>
+        <v>2075</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11684</v>
+        <v>12316</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01301686394582026</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00281287546896537</v>
+        <v>0.005043008775691109</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02839186013901199</v>
+        <v>0.02992921723868222</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -3453,19 +3453,19 @@
         <v>8811</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4129</v>
+        <v>4055</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18400</v>
+        <v>16986</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02630225516072919</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01232696220540145</v>
+        <v>0.01210360947534886</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0549248777038376</v>
+        <v>0.05070553348088944</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>13</v>
@@ -3474,19 +3474,19 @@
         <v>14168</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8090</v>
+        <v>7926</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>24538</v>
+        <v>23779</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01897863089404937</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01083767541789035</v>
+        <v>0.01061716080325709</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03286954587331478</v>
+        <v>0.03185269285521333</v>
       </c>
     </row>
     <row r="11">
@@ -3578,19 +3578,19 @@
         <v>533121</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>513886</v>
+        <v>513862</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>549819</v>
+        <v>551677</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8482702986993158</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.817665311875997</v>
+        <v>0.8176266643780917</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8748399680275287</v>
+        <v>0.8777957186451324</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>206</v>
@@ -3599,19 +3599,19 @@
         <v>220941</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>208765</v>
+        <v>208440</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>230992</v>
+        <v>230755</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8636346349307764</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8160403454770775</v>
+        <v>0.8147679414686938</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9029209029239085</v>
+        <v>0.9019978846296511</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>703</v>
@@ -3620,19 +3620,19 @@
         <v>754062</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>733208</v>
+        <v>731766</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>773960</v>
+        <v>774122</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8527151507573927</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8291334057681801</v>
+        <v>0.8275019348322714</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8752164462962789</v>
+        <v>0.875400131172837</v>
       </c>
     </row>
     <row r="13">
@@ -3649,19 +3649,19 @@
         <v>86912</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>70977</v>
+        <v>68534</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>104643</v>
+        <v>107826</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.138289403464311</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1129343790990343</v>
+        <v>0.1090471654108692</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1665023202720372</v>
+        <v>0.1715659352042985</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>29</v>
@@ -3670,19 +3670,19 @@
         <v>29889</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>21221</v>
+        <v>20446</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>40536</v>
+        <v>42218</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1168316345367848</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08295007159874042</v>
+        <v>0.07992287293080673</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1584492002379036</v>
+        <v>0.1650265418002971</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>114</v>
@@ -3691,19 +3691,19 @@
         <v>116801</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>97423</v>
+        <v>99051</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>136977</v>
+        <v>139329</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1320817413211228</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1101682126287746</v>
+        <v>0.1120092121048814</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1548974350203616</v>
+        <v>0.1575576462313626</v>
       </c>
     </row>
     <row r="14">
@@ -3720,19 +3720,19 @@
         <v>8447</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3831</v>
+        <v>3786</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>17451</v>
+        <v>16316</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01344029783637319</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.006096271114380515</v>
+        <v>0.006024536343585303</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02776761596573478</v>
+        <v>0.02596108149913535</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5</v>
@@ -3741,19 +3741,19 @@
         <v>4997</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1933</v>
+        <v>1985</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>11626</v>
+        <v>12324</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01953373053243885</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.00755656118001506</v>
+        <v>0.007759174469552395</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04544601298157441</v>
+        <v>0.04817320775548552</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>13</v>
@@ -3762,19 +3762,19 @@
         <v>13444</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>7507</v>
+        <v>6985</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>22449</v>
+        <v>22707</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01520310792148453</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.008489037065356721</v>
+        <v>0.00789938004887417</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02538561260523971</v>
+        <v>0.0256772792052461</v>
       </c>
     </row>
     <row r="15">
@@ -3866,19 +3866,19 @@
         <v>962281</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>934621</v>
+        <v>936990</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>984569</v>
+        <v>987693</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8394424660044781</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8153129846080707</v>
+        <v>0.817379454691139</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8588848407129888</v>
+        <v>0.8616101789218671</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>604</v>
@@ -3887,19 +3887,19 @@
         <v>651061</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>629504</v>
+        <v>631668</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>668983</v>
+        <v>669710</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8551344357321156</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8268204316198867</v>
+        <v>0.82966287195771</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8786746600653175</v>
+        <v>0.8796290361870477</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1497</v>
@@ -3908,19 +3908,19 @@
         <v>1613342</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1578186</v>
+        <v>1578291</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1643855</v>
+        <v>1643619</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.845705099358288</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8272765391518856</v>
+        <v>0.8273315747408302</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8616997692587032</v>
+        <v>0.8615759291585191</v>
       </c>
     </row>
     <row r="17">
@@ -3937,19 +3937,19 @@
         <v>171975</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>150801</v>
+        <v>146694</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>198895</v>
+        <v>196394</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1500220244033241</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1315504592789869</v>
+        <v>0.1279682166121074</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1735054739419487</v>
+        <v>0.1713236668578149</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>93</v>
@@ -3958,19 +3958,19 @@
         <v>100138</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>83043</v>
+        <v>83650</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>121542</v>
+        <v>119203</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1315256554348256</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1090726429674218</v>
+        <v>0.1098693246197003</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1596392243506869</v>
+        <v>0.1565670515875534</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>259</v>
@@ -3979,19 +3979,19 @@
         <v>272113</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>244468</v>
+        <v>242823</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>306428</v>
+        <v>307010</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1426401609892955</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1281487615829953</v>
+        <v>0.1272863722121978</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1606276168618071</v>
+        <v>0.1609327908472932</v>
       </c>
     </row>
     <row r="18">
@@ -4008,19 +4008,19 @@
         <v>12077</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6957</v>
+        <v>6150</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>21696</v>
+        <v>21177</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01053550959219776</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.006069033534124033</v>
+        <v>0.005364837081841296</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.0189267515186137</v>
+        <v>0.01847362690919763</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>9</v>
@@ -4029,19 +4029,19 @@
         <v>10156</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>5155</v>
+        <v>5158</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>19164</v>
+        <v>18100</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01333990883305878</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.006770492953946624</v>
+        <v>0.006774872530714973</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02517145392250153</v>
+        <v>0.02377318745873312</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>21</v>
@@ -4050,19 +4050,19 @@
         <v>22234</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>14187</v>
+        <v>13990</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>33971</v>
+        <v>33778</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01165473965241656</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.007436644026498162</v>
+        <v>0.007333274444218964</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.0178073554235253</v>
+        <v>0.01770619004001797</v>
       </c>
     </row>
     <row r="19">
@@ -4154,19 +4154,19 @@
         <v>426147</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>408142</v>
+        <v>407860</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>441095</v>
+        <v>441578</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8392580215772303</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.803799218147337</v>
+        <v>0.8032439810537351</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8686974777010422</v>
+        <v>0.8696485405530302</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>629</v>
@@ -4175,19 +4175,19 @@
         <v>680141</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>660261</v>
+        <v>660156</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>696480</v>
+        <v>696187</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8970292040989101</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8708097028517119</v>
+        <v>0.8706712409511156</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9185790756773138</v>
+        <v>0.9181925574201175</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1031</v>
@@ -4196,19 +4196,19 @@
         <v>1106287</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1079001</v>
+        <v>1081809</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1126752</v>
+        <v>1129640</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8738580451415414</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8523049169401906</v>
+        <v>0.8545232135416331</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8900239256809892</v>
+        <v>0.8923051507744436</v>
       </c>
     </row>
     <row r="21">
@@ -4225,19 +4225,19 @@
         <v>73756</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>59400</v>
+        <v>59854</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>92117</v>
+        <v>91965</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.145256243277508</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1169825534637893</v>
+        <v>0.1178773744797978</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1814153664991645</v>
+        <v>0.1811168585232626</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>62</v>
@@ -4246,19 +4246,19 @@
         <v>68809</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>52617</v>
+        <v>53256</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>87106</v>
+        <v>88170</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.09075081172859983</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.06939633879412606</v>
+        <v>0.0702380145738684</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1148832761871066</v>
+        <v>0.1162859227787656</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>136</v>
@@ -4267,19 +4267,19 @@
         <v>142565</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>121343</v>
+        <v>119948</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>167775</v>
+        <v>165346</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.112612126718747</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.09584870454726484</v>
+        <v>0.09474725074164278</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.132525990974935</v>
+        <v>0.1306068394162698</v>
       </c>
     </row>
     <row r="22">
@@ -4296,19 +4296,19 @@
         <v>7863</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3721</v>
+        <v>3811</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15212</v>
+        <v>15576</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01548573514526175</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.00732826518354742</v>
+        <v>0.007504964733227047</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02995914502978233</v>
+        <v>0.03067469543655345</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>9</v>
@@ -4317,19 +4317,19 @@
         <v>9265</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4130</v>
+        <v>4329</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>17299</v>
+        <v>16638</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01221998417249015</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.005447507777114417</v>
+        <v>0.005709610428924931</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02281534519688455</v>
+        <v>0.02194299395758273</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>17</v>
@@ -4338,19 +4338,19 @@
         <v>17128</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>10902</v>
+        <v>10419</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>27244</v>
+        <v>27024</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01352982813971161</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.008611702673258777</v>
+        <v>0.008229700790866266</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02152015288850397</v>
+        <v>0.02134624181870093</v>
       </c>
     </row>
     <row r="23">
@@ -4442,19 +4442,19 @@
         <v>176590</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>162937</v>
+        <v>162116</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>191231</v>
+        <v>190444</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.66920906396192</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.6174671565277592</v>
+        <v>0.6143558051783673</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7246928737977359</v>
+        <v>0.7217082041225905</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>877</v>
@@ -4463,19 +4463,19 @@
         <v>939444</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>913625</v>
+        <v>913939</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>959216</v>
+        <v>960753</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.8600122731976776</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.8363764230431855</v>
+        <v>0.8366642291134181</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8781122992283608</v>
+        <v>0.879519261209206</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1050</v>
@@ -4484,19 +4484,19 @@
         <v>1116034</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1084759</v>
+        <v>1086123</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1142259</v>
+        <v>1144120</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.8228883618911904</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.7998280174893393</v>
+        <v>0.8008338588011632</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.8422245012330377</v>
+        <v>0.8435967767720985</v>
       </c>
     </row>
     <row r="25">
@@ -4513,19 +4513,19 @@
         <v>85416</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>71270</v>
+        <v>72135</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>99577</v>
+        <v>100095</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3236943486005242</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2700852095037101</v>
+        <v>0.2733655480743204</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3773573787985401</v>
+        <v>0.3793234564565202</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>134</v>
@@ -4534,19 +4534,19 @@
         <v>135015</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>115453</v>
+        <v>113260</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>158707</v>
+        <v>158013</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1235988422957181</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1056914337404838</v>
+        <v>0.1036841194411605</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.145288002091594</v>
+        <v>0.1446528972727552</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>221</v>
@@ -4555,19 +4555,19 @@
         <v>220431</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>195238</v>
+        <v>194641</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>249976</v>
+        <v>247854</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1625307232564192</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1439555299910489</v>
+        <v>0.1435151201970432</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1843150970564019</v>
+        <v>0.1827505445372359</v>
       </c>
     </row>
     <row r="26">
@@ -4587,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>6530</v>
+        <v>5692</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.007096587437555829</v>
@@ -4596,7 +4596,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0247475723079134</v>
+        <v>0.02157006464895272</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>17</v>
@@ -4605,19 +4605,19 @@
         <v>17903</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>11027</v>
+        <v>10743</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>27792</v>
+        <v>28029</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01638888450660429</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01009505726594161</v>
+        <v>0.009834240865858346</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02544225976349228</v>
+        <v>0.02565886766307606</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>19</v>
@@ -4626,19 +4626,19 @@
         <v>19775</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>11387</v>
+        <v>12125</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>29936</v>
+        <v>30098</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01458091485239034</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.008395814195071922</v>
+        <v>0.008939949912873868</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02207297547533268</v>
+        <v>0.02219237083075227</v>
       </c>
     </row>
     <row r="27">
@@ -4730,19 +4730,19 @@
         <v>2797213</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2751691</v>
+        <v>2751046</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2846333</v>
+        <v>2838068</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.824120772309356</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8107088198562618</v>
+        <v>0.8105188799660741</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8385923786212803</v>
+        <v>0.8361575170820665</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2810</v>
@@ -4751,19 +4751,19 @@
         <v>3041654</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3001784</v>
+        <v>2994691</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>3080807</v>
+        <v>3084458</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.8652756370997562</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.8539336066091224</v>
+        <v>0.8519158453436488</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8764135783042647</v>
+        <v>0.8774521757695803</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5406</v>
@@ -4772,19 +4772,19 @@
         <v>5838868</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5772403</v>
+        <v>5774006</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5898066</v>
+        <v>5898460</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.8450587561672129</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.8354393901325925</v>
+        <v>0.8356714181978455</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8536265273065912</v>
+        <v>0.8536835457628144</v>
       </c>
     </row>
     <row r="29">
@@ -4801,19 +4801,19 @@
         <v>552954</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>505718</v>
+        <v>512415</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>598555</v>
+        <v>597833</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1629123001351633</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1489956086234928</v>
+        <v>0.1509688532890295</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.176347497651456</v>
+        <v>0.1761347337718886</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>395</v>
@@ -4822,19 +4822,19 @@
         <v>418430</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>381093</v>
+        <v>378609</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>458939</v>
+        <v>461991</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1190329633738198</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1084115603099063</v>
+        <v>0.1077048971762768</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1305569182791279</v>
+        <v>0.1314251944644068</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>935</v>
@@ -4843,19 +4843,19 @@
         <v>971383</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>915323</v>
+        <v>915119</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1037372</v>
+        <v>1028540</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1405882116104749</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1324746500185126</v>
+        <v>0.1324450207314479</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1501387233687787</v>
+        <v>0.1488604926269075</v>
       </c>
     </row>
     <row r="30">
@@ -4872,19 +4872,19 @@
         <v>44012</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>32852</v>
+        <v>31363</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>59156</v>
+        <v>58070</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01296692755548073</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.009679048002767681</v>
+        <v>0.009240219312166632</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.01742876780273043</v>
+        <v>0.0171087880561885</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>52</v>
@@ -4893,19 +4893,19 @@
         <v>55159</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>41269</v>
+        <v>41870</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>70010</v>
+        <v>73271</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01569139952642401</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01173995162853627</v>
+        <v>0.01191102325354217</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.01991624313581796</v>
+        <v>0.02084389936855332</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>94</v>
@@ -4914,19 +4914,19 @@
         <v>99171</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>81471</v>
+        <v>78970</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>121212</v>
+        <v>119804</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01435303222231225</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01179122134786529</v>
+        <v>0.01142939221723817</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01754303921002269</v>
+        <v>0.017339169672802</v>
       </c>
     </row>
     <row r="31">
@@ -5260,19 +5260,19 @@
         <v>354776</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>337011</v>
+        <v>338849</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>369466</v>
+        <v>370102</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8341330339609595</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7923653603076126</v>
+        <v>0.7966855193173425</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8686724271517419</v>
+        <v>0.8701680532390833</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>261</v>
@@ -5281,19 +5281,19 @@
         <v>274164</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>259265</v>
+        <v>258342</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>288322</v>
+        <v>287618</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8024914193704725</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7588823880507957</v>
+        <v>0.7561791575989761</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8439332946785316</v>
+        <v>0.8418707657199628</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>588</v>
@@ -5302,19 +5302,19 @@
         <v>628940</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>605805</v>
+        <v>604448</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>648973</v>
+        <v>649047</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8200384102935926</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7898736547580406</v>
+        <v>0.7881043900684919</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8461584598138893</v>
+        <v>0.8462543263415406</v>
       </c>
     </row>
     <row r="5">
@@ -5331,19 +5331,19 @@
         <v>67870</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>54027</v>
+        <v>52938</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>85597</v>
+        <v>84071</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1595724918762169</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1270249459112505</v>
+        <v>0.1244653864881533</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2012519808531105</v>
+        <v>0.1976640277065116</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>59</v>
@@ -5352,19 +5352,19 @@
         <v>60708</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>48277</v>
+        <v>48467</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>77156</v>
+        <v>77200</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1776961561975678</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1413101527966611</v>
+        <v>0.141864067600978</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2258399609683993</v>
+        <v>0.2259674542849327</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>123</v>
@@ -5373,19 +5373,19 @@
         <v>128578</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>110519</v>
+        <v>109031</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>152957</v>
+        <v>151981</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1676456016523509</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1440987349672786</v>
+        <v>0.1421589072363383</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1994322546364718</v>
+        <v>0.1981595565300089</v>
       </c>
     </row>
     <row r="6">
@@ -5405,7 +5405,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8901</v>
+        <v>10353</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.006294474162823629</v>
@@ -5414,7 +5414,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0209266046347205</v>
+        <v>0.02434118091873501</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>7</v>
@@ -5423,19 +5423,19 @@
         <v>6769</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2818</v>
+        <v>2910</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>13728</v>
+        <v>13746</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01981242443195967</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.008249387747076229</v>
+        <v>0.008518148170957071</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04018151160727028</v>
+        <v>0.04023418691646961</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>9</v>
@@ -5444,19 +5444,19 @@
         <v>9446</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>4470</v>
+        <v>4663</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>17910</v>
+        <v>18179</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01231598805405649</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.005828342956273646</v>
+        <v>0.00607916444692904</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02335236449118701</v>
+        <v>0.02370270407696036</v>
       </c>
     </row>
     <row r="7">
@@ -5548,19 +5548,19 @@
         <v>329288</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>315855</v>
+        <v>314061</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>341738</v>
+        <v>340164</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8797575297363671</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.843867598167672</v>
+        <v>0.8390745591779276</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9130211487139596</v>
+        <v>0.9088154688929623</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>292</v>
@@ -5569,19 +5569,19 @@
         <v>308351</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>290919</v>
+        <v>291927</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>320971</v>
+        <v>320927</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.835809506532721</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.788557746690648</v>
+        <v>0.7912919190329487</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8700173048971035</v>
+        <v>0.8698971108385204</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>601</v>
@@ -5590,19 +5590,19 @@
         <v>637638</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>615232</v>
+        <v>616111</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>654725</v>
+        <v>655581</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8579422640378825</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.827795068662732</v>
+        <v>0.8289770258441731</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8809322658074866</v>
+        <v>0.8820849409675142</v>
       </c>
     </row>
     <row r="9">
@@ -5619,19 +5619,19 @@
         <v>40252</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>28803</v>
+        <v>29656</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>54430</v>
+        <v>54718</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1075419852644992</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0769530582388637</v>
+        <v>0.07923263605189927</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1454199706577866</v>
+        <v>0.1461899822602396</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>50</v>
@@ -5640,19 +5640,19 @@
         <v>53116</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>40913</v>
+        <v>41513</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>68918</v>
+        <v>68931</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1439746274832528</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1108981915651462</v>
+        <v>0.1125249815559595</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1868088266137178</v>
+        <v>0.1868432809923966</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>88</v>
@@ -5661,19 +5661,19 @@
         <v>93368</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>76845</v>
+        <v>77081</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>112393</v>
+        <v>113873</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1256267069917326</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1033950985946229</v>
+        <v>0.1037122079097159</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1512253106833029</v>
+        <v>0.1532162171209236</v>
       </c>
     </row>
     <row r="10">
@@ -5690,19 +5690,19 @@
         <v>4754</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1838</v>
+        <v>1852</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11699</v>
+        <v>13369</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01270048499913373</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004910830471640339</v>
+        <v>0.004948051309806549</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03125488278890623</v>
+        <v>0.03571871169567653</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -5711,19 +5711,19 @@
         <v>7458</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2945</v>
+        <v>3514</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14952</v>
+        <v>16465</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02021586598402618</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007983228774125486</v>
+        <v>0.009525340448851482</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04052863046407868</v>
+        <v>0.04463008769079203</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>11</v>
@@ -5732,19 +5732,19 @@
         <v>12212</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6467</v>
+        <v>6544</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>21766</v>
+        <v>21654</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01643102897038487</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.008701615976278861</v>
+        <v>0.008804513455827036</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02928637277517408</v>
+        <v>0.02913555466109058</v>
       </c>
     </row>
     <row r="11">
@@ -5836,19 +5836,19 @@
         <v>451641</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>435445</v>
+        <v>435248</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>466071</v>
+        <v>465576</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8746887352955591</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.843321411055426</v>
+        <v>0.8429397540013819</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9026350194332639</v>
+        <v>0.9016759547264533</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>135</v>
@@ -5857,19 +5857,19 @@
         <v>147123</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>138364</v>
+        <v>138421</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>153965</v>
+        <v>155001</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8856255824464839</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8329032991661082</v>
+        <v>0.8332413784189225</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9268111807420876</v>
+        <v>0.9330483796268528</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>573</v>
@@ -5878,19 +5878,19 @@
         <v>598763</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>579862</v>
+        <v>577939</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>615026</v>
+        <v>615337</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.877350927331931</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8496552038491096</v>
+        <v>0.8468377446783213</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9011805157657161</v>
+        <v>0.9016365593744531</v>
       </c>
     </row>
     <row r="13">
@@ -5907,19 +5907,19 @@
         <v>62678</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>48355</v>
+        <v>48728</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>79680</v>
+        <v>78946</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1213878636179885</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09364850106868951</v>
+        <v>0.09437047116168432</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.154314474043621</v>
+        <v>0.1528932826279991</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -5928,19 +5928,19 @@
         <v>19000</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12158</v>
+        <v>11122</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>27759</v>
+        <v>27702</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1143744175535161</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07318881925791257</v>
+        <v>0.06695162037314724</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1670967008338919</v>
+        <v>0.1667586215810775</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>75</v>
@@ -5949,19 +5949,19 @@
         <v>81678</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>65645</v>
+        <v>64333</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>100223</v>
+        <v>101767</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1196806860372189</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09618774221739343</v>
+        <v>0.09426582779856579</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1468534217503616</v>
+        <v>0.1491158671656053</v>
       </c>
     </row>
     <row r="14">
@@ -5981,7 +5981,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7406</v>
+        <v>7130</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.003923401086452459</v>
@@ -5990,7 +5990,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01434266814067707</v>
+        <v>0.01380772306531444</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -6015,7 +6015,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6206</v>
+        <v>7751</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.002968386630850111</v>
@@ -6024,7 +6024,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.009093363456906974</v>
+        <v>0.0113577849750767</v>
       </c>
     </row>
     <row r="15">
@@ -6116,19 +6116,19 @@
         <v>995376</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>970443</v>
+        <v>970674</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1017277</v>
+        <v>1015598</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8743837943844172</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8524813222877957</v>
+        <v>0.8526842809175934</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8936231104182242</v>
+        <v>0.8921483098825547</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>685</v>
@@ -6137,19 +6137,19 @@
         <v>710053</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>686936</v>
+        <v>689716</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>727590</v>
+        <v>728797</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8647271630532027</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8365748058139074</v>
+        <v>0.839960353001055</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8860851553419137</v>
+        <v>0.8875552824694679</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1641</v>
@@ -6158,19 +6158,19 @@
         <v>1705429</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1675164</v>
+        <v>1675060</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1733872</v>
+        <v>1734946</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8703371865264037</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8548916705605699</v>
+        <v>0.8548388824233772</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8848522914438363</v>
+        <v>0.8854007980027383</v>
       </c>
     </row>
     <row r="17">
@@ -6187,19 +6187,19 @@
         <v>134322</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>113165</v>
+        <v>113984</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>157978</v>
+        <v>156842</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1179948261309259</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09940957135973812</v>
+        <v>0.100128495575731</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1387750825197867</v>
+        <v>0.1377772900570323</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>103</v>
@@ -6208,19 +6208,19 @@
         <v>104936</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>87369</v>
+        <v>87972</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>127316</v>
+        <v>125375</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1277946046110604</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1064008084939021</v>
+        <v>0.1071351871330427</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.155049757191693</v>
+        <v>0.1526861889042413</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>230</v>
@@ -6229,19 +6229,19 @@
         <v>239258</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>212806</v>
+        <v>210691</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>268432</v>
+        <v>269562</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1221014197497915</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1086018665108274</v>
+        <v>0.1075228655098396</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1369898782987997</v>
+        <v>0.137566643444996</v>
       </c>
     </row>
     <row r="18">
@@ -6258,19 +6258,19 @@
         <v>8676</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4218</v>
+        <v>4472</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>15873</v>
+        <v>15759</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.007621379484656943</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.003705630338237004</v>
+        <v>0.003928198247751017</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01394397836546171</v>
+        <v>0.01384322553289902</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>6</v>
@@ -6279,19 +6279,19 @@
         <v>6141</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2863</v>
+        <v>2777</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>13698</v>
+        <v>13467</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.007478232335736894</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.003487032531186601</v>
+        <v>0.00338243550691356</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.01668156587845597</v>
+        <v>0.01640050898518446</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>15</v>
@@ -6300,19 +6300,19 @@
         <v>14817</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>8074</v>
+        <v>8249</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>24187</v>
+        <v>23175</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.007561393723804743</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.004120356571599848</v>
+        <v>0.00420961826816602</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01234339811713789</v>
+        <v>0.01182677126427657</v>
       </c>
     </row>
     <row r="19">
@@ -6404,19 +6404,19 @@
         <v>560368</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>542268</v>
+        <v>543519</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>573116</v>
+        <v>574655</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9040910142974816</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8748875111868348</v>
+        <v>0.8769066252090318</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9246582046345411</v>
+        <v>0.9271405182105323</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>626</v>
@@ -6425,19 +6425,19 @@
         <v>663214</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>644826</v>
+        <v>645751</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>676987</v>
+        <v>677894</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9049193038029596</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8798299361569968</v>
+        <v>0.8810920113956431</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.923711828958276</v>
+        <v>0.9249483374192804</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1168</v>
@@ -6446,19 +6446,19 @@
         <v>1223582</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1198964</v>
+        <v>1199542</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1244076</v>
+        <v>1245323</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9045397810367317</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8863407005202844</v>
+        <v>0.8867683602675123</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.919690395419546</v>
+        <v>0.9206122901614207</v>
       </c>
     </row>
     <row r="21">
@@ -6475,19 +6475,19 @@
         <v>52826</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>40819</v>
+        <v>40108</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>70280</v>
+        <v>68869</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.08522873894596872</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.06585716563547528</v>
+        <v>0.06470953305942054</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1133893546581305</v>
+        <v>0.1111117027838733</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>61</v>
@@ -6496,19 +6496,19 @@
         <v>62279</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>49279</v>
+        <v>48150</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>78778</v>
+        <v>78461</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.08497661936504683</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.06723796092583402</v>
+        <v>0.0656975896325388</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1074886793500172</v>
+        <v>0.1070559588929998</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>109</v>
@@ -6517,19 +6517,19 @@
         <v>115105</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>95669</v>
+        <v>95342</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>138607</v>
+        <v>137976</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.08509214071372849</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.07072368453433746</v>
+        <v>0.0704821140955057</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1024661466668652</v>
+        <v>0.1019993035838331</v>
       </c>
     </row>
     <row r="22">
@@ -6546,19 +6546,19 @@
         <v>6620</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2653</v>
+        <v>2476</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>13838</v>
+        <v>15433</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01068024675654969</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004280119691774736</v>
+        <v>0.003994819781735927</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02232673813837144</v>
+        <v>0.02489931994283088</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -6567,19 +6567,19 @@
         <v>7405</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3170</v>
+        <v>3241</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>15588</v>
+        <v>15020</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01010407683199353</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.004325075940121231</v>
+        <v>0.004422013990447229</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02126871952948333</v>
+        <v>0.02049395913414605</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>13</v>
@@ -6588,19 +6588,19 @@
         <v>14025</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>7940</v>
+        <v>7549</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>23381</v>
+        <v>23798</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01036807824953975</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.005869406910976148</v>
+        <v>0.005580603973513646</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01728485199028689</v>
+        <v>0.01759282375017221</v>
       </c>
     </row>
     <row r="23">
@@ -6692,19 +6692,19 @@
         <v>216280</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>201699</v>
+        <v>201673</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>229574</v>
+        <v>230601</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.7656073711706448</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.7139902604479245</v>
+        <v>0.7139006184661509</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8126644250752606</v>
+        <v>0.8163013528931922</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>841</v>
@@ -6713,19 +6713,19 @@
         <v>924912</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>901588</v>
+        <v>902173</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>946956</v>
+        <v>947360</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.8607469659371361</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.8390411625707371</v>
+        <v>0.8395851805430095</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8812618743701336</v>
+        <v>0.881637118035086</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1046</v>
@@ -6734,19 +6734,19 @@
         <v>1141192</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1113739</v>
+        <v>1112378</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1166843</v>
+        <v>1170568</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.8409417931015923</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.8207116777262415</v>
+        <v>0.819708748665067</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.8598437911733307</v>
+        <v>0.862588435586195</v>
       </c>
     </row>
     <row r="25">
@@ -6763,19 +6763,19 @@
         <v>60164</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>47262</v>
+        <v>46539</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>74344</v>
+        <v>74218</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2129729771609902</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.167301761677752</v>
+        <v>0.164741184224872</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2631707977282807</v>
+        <v>0.2627217349115649</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>134</v>
@@ -6784,19 +6784,19 @@
         <v>137883</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>116668</v>
+        <v>116278</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>159174</v>
+        <v>160885</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1283178700427358</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1085738428251737</v>
+        <v>0.1082110903846328</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1481312855201432</v>
+        <v>0.1497235239323714</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>192</v>
@@ -6805,19 +6805,19 @@
         <v>198047</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>171188</v>
+        <v>170112</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>224806</v>
+        <v>223492</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1459404911186772</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1261476739698388</v>
+        <v>0.125355261533959</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1656587289528692</v>
+        <v>0.1646903769440089</v>
       </c>
     </row>
     <row r="26">
@@ -6834,19 +6834,19 @@
         <v>6051</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2160</v>
+        <v>2140</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>14104</v>
+        <v>13688</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0214196516683649</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.007647376518104988</v>
+        <v>0.00757396538015087</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04992764467830414</v>
+        <v>0.04845381142821124</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>11</v>
@@ -6855,19 +6855,19 @@
         <v>11750</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>6091</v>
+        <v>6152</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>20983</v>
+        <v>20976</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01093516402012816</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.005668784739284127</v>
+        <v>0.005724820409384128</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01952704693183823</v>
+        <v>0.01952099856626575</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>16</v>
@@ -6876,19 +6876,19 @@
         <v>17801</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>9693</v>
+        <v>10290</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>28537</v>
+        <v>29051</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01311771577973042</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.007142421798143413</v>
+        <v>0.007582681125759559</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02102873606608558</v>
+        <v>0.02140734999362043</v>
       </c>
     </row>
     <row r="27">
@@ -6980,19 +6980,19 @@
         <v>2907729</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2863985</v>
+        <v>2864858</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2946268</v>
+        <v>2950347</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8662606293980887</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8532287084942255</v>
+        <v>0.8534888435439781</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8777422244612925</v>
+        <v>0.8789575119226185</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2840</v>
@@ -7001,19 +7001,19 @@
         <v>3027816</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2986969</v>
+        <v>2985703</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>3071217</v>
+        <v>3067014</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.8637916747612724</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.8521386202073322</v>
+        <v>0.8517773867931021</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.876173316382409</v>
+        <v>0.8749743495818885</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5617</v>
@@ -7022,19 +7022,19 @@
         <v>5935545</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5870473</v>
+        <v>5876350</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5988116</v>
+        <v>5987839</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.86499941525489</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.8555163660150784</v>
+        <v>0.8563728026858938</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8726606952973245</v>
+        <v>0.8726203145974563</v>
       </c>
     </row>
     <row r="29">
@@ -7051,19 +7051,19 @@
         <v>418112</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>380672</v>
+        <v>376267</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>461017</v>
+        <v>459051</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1245625243487593</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1134085636273322</v>
+        <v>0.1120963105387428</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1373446147059605</v>
+        <v>0.1367589911673623</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>425</v>
@@ -7072,19 +7072,19 @@
         <v>437923</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>397759</v>
+        <v>400692</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>476474</v>
+        <v>479979</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1249329749506392</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1134748031771306</v>
+        <v>0.1143116323020588</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1359310595740379</v>
+        <v>0.1369310063272723</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>817</v>
@@ -7093,19 +7093,19 @@
         <v>856035</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>804386</v>
+        <v>802247</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>912162</v>
+        <v>912277</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1247517613365436</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1172248060171536</v>
+        <v>0.1169131340676875</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1329313476399428</v>
+        <v>0.1329480156936653</v>
       </c>
     </row>
     <row r="30">
@@ -7122,19 +7122,19 @@
         <v>30803</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>20262</v>
+        <v>21335</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>43230</v>
+        <v>45596</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.009176846253152059</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.006036342480222133</v>
+        <v>0.006356159771080895</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.01287894451804563</v>
+        <v>0.01358384198026458</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>38</v>
@@ -7143,19 +7143,19 @@
         <v>39523</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>28434</v>
+        <v>27487</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>55155</v>
+        <v>52294</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01127535028808845</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.008111884106051985</v>
+        <v>0.007841773152730085</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.0157349061570847</v>
+        <v>0.01491874159422523</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>66</v>
@@ -7164,19 +7164,19 @@
         <v>70326</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>55718</v>
+        <v>55705</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>92285</v>
+        <v>88884</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01024882340856632</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.008119937260428478</v>
+        <v>0.008117945014836259</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01344892040501372</v>
+        <v>0.01295329309856176</v>
       </c>
     </row>
     <row r="31">
@@ -7510,19 +7510,19 @@
         <v>462404</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>439335</v>
+        <v>443730</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>480234</v>
+        <v>479969</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8397900495605414</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7978943176019959</v>
+        <v>0.8058764418367298</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8721724586201849</v>
+        <v>0.8716916409759221</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>615</v>
@@ -7531,19 +7531,19 @@
         <v>432044</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>417341</v>
+        <v>417128</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>444148</v>
+        <v>443755</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.8845904464163352</v>
+        <v>0.8845904464163351</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8544873085993367</v>
+        <v>0.8540519867340122</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9093743503102347</v>
+        <v>0.9085693410264652</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1090</v>
@@ -7552,19 +7552,19 @@
         <v>894447</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>870764</v>
+        <v>868971</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>916161</v>
+        <v>914924</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.8608491329085332</v>
+        <v>0.860849132908533</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8380551967678647</v>
+        <v>0.8363296411544883</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8817469257419284</v>
+        <v>0.8805571344126484</v>
       </c>
     </row>
     <row r="5">
@@ -7581,19 +7581,19 @@
         <v>78929</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>62031</v>
+        <v>61694</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>101349</v>
+        <v>96025</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1433464480875007</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1126566275643943</v>
+        <v>0.1120447820492839</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1840640329197774</v>
+        <v>0.1743945044750249</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>65</v>
@@ -7602,19 +7602,19 @@
         <v>51366</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>39741</v>
+        <v>40008</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>65971</v>
+        <v>65799</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.1051702959663957</v>
+        <v>0.1051702959663956</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08136717014718599</v>
+        <v>0.08191521868795705</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1350729983205862</v>
+        <v>0.1347197836115008</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>136</v>
@@ -7623,19 +7623,19 @@
         <v>130295</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>109440</v>
+        <v>110291</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>152844</v>
+        <v>155086</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1254011880932248</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1053294597461929</v>
+        <v>0.106148198450694</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1471026484304673</v>
+        <v>0.1492608952221671</v>
       </c>
     </row>
     <row r="6">
@@ -7652,19 +7652,19 @@
         <v>9285</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4100</v>
+        <v>4452</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17574</v>
+        <v>18944</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01686350235195796</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.007446147836814504</v>
+        <v>0.008084603442192445</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03191669089506716</v>
+        <v>0.03440554302418727</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>6</v>
@@ -7673,19 +7673,19 @@
         <v>5001</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1972</v>
+        <v>1781</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10717</v>
+        <v>10750</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01023925761726917</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.004037988095677655</v>
+        <v>0.003647249089416749</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02194179984889717</v>
+        <v>0.02201106971393404</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>14</v>
@@ -7694,19 +7694,19 @@
         <v>14286</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>7663</v>
+        <v>7680</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>23614</v>
+        <v>23344</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01374967899824218</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.007374819649211477</v>
+        <v>0.007391755245218858</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02272716033134802</v>
+        <v>0.02246729858820401</v>
       </c>
     </row>
     <row r="7">
@@ -7798,19 +7798,19 @@
         <v>405113</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>386674</v>
+        <v>385919</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>421535</v>
+        <v>420970</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8383745482476642</v>
+        <v>0.8383745482476641</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8002163111038725</v>
+        <v>0.7986526965642844</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8723613365796208</v>
+        <v>0.8711909109195667</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>511</v>
@@ -7819,19 +7819,19 @@
         <v>360666</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>347290</v>
+        <v>346178</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>374111</v>
+        <v>374034</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.852350592466372</v>
+        <v>0.8523505924663719</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.820738272514983</v>
+        <v>0.818110529322525</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8841233604579003</v>
+        <v>0.883942696136872</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>922</v>
@@ -7840,19 +7840,19 @@
         <v>765779</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>743209</v>
+        <v>741530</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>787981</v>
+        <v>784501</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8448994344492496</v>
+        <v>0.8448994344492495</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8199979768515364</v>
+        <v>0.8181449039130618</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8693959788423995</v>
+        <v>0.8655559835897624</v>
       </c>
     </row>
     <row r="9">
@@ -7869,19 +7869,19 @@
         <v>72014</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>56920</v>
+        <v>57357</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>88571</v>
+        <v>90678</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1490320052309837</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1177955214765732</v>
+        <v>0.118699237371004</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1832969335126254</v>
+        <v>0.1876574174966664</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>68</v>
@@ -7890,19 +7890,19 @@
         <v>52353</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>40502</v>
+        <v>39835</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>65218</v>
+        <v>64863</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1237241185714269</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.09571732016296007</v>
+        <v>0.09414054647221388</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1541274566075167</v>
+        <v>0.1532892994149484</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>134</v>
@@ -7911,19 +7911,19 @@
         <v>124367</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>104704</v>
+        <v>106284</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>146034</v>
+        <v>146812</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1372167105830756</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.115522114166404</v>
+        <v>0.1172649003060749</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1611221209144211</v>
+        <v>0.1619805903124994</v>
       </c>
     </row>
     <row r="10">
@@ -7940,19 +7940,19 @@
         <v>6085</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1551</v>
+        <v>1667</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16761</v>
+        <v>20096</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01259344652135209</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003210161256816497</v>
+        <v>0.003449272992979974</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03468649217624122</v>
+        <v>0.0415876280505687</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -7961,19 +7961,19 @@
         <v>10124</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4879</v>
+        <v>5320</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18320</v>
+        <v>18231</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02392528896220106</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01153028740966937</v>
+        <v>0.01257365020995421</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0432951434231208</v>
+        <v>0.04308400603937348</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>15</v>
@@ -7982,19 +7982,19 @@
         <v>16209</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8970</v>
+        <v>9403</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>28007</v>
+        <v>28989</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01788385496767493</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009897308622484308</v>
+        <v>0.01037491703567971</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03090065161359301</v>
+        <v>0.03198460498341688</v>
       </c>
     </row>
     <row r="11">
@@ -8086,19 +8086,19 @@
         <v>387293</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>369107</v>
+        <v>369782</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>404252</v>
+        <v>405084</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.8235811594665127</v>
+        <v>0.8235811594665126</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7849077923477722</v>
+        <v>0.7863440899828477</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8596438665319902</v>
+        <v>0.8614145270389677</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>251</v>
@@ -8107,19 +8107,19 @@
         <v>159016</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>149989</v>
+        <v>149801</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>166851</v>
+        <v>166475</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.8509884380439452</v>
+        <v>0.850988438043945</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.802682871721046</v>
+        <v>0.80167711076124</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8929181975184939</v>
+        <v>0.8909099141795062</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>661</v>
@@ -8128,19 +8128,19 @@
         <v>546310</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>523983</v>
+        <v>526584</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>564069</v>
+        <v>565255</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.8313748181727918</v>
+        <v>0.8313748181727919</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7973975573573521</v>
+        <v>0.8013560229417634</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8584012330887559</v>
+        <v>0.8602053981828708</v>
       </c>
     </row>
     <row r="13">
@@ -8157,19 +8157,19 @@
         <v>70230</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>54095</v>
+        <v>54454</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>86803</v>
+        <v>88312</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1493447929417182</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1150338383351741</v>
+        <v>0.1157977391561804</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1845864232294145</v>
+        <v>0.1877968300268296</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>34</v>
@@ -8178,19 +8178,19 @@
         <v>25579</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>17988</v>
+        <v>18309</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>34281</v>
+        <v>34883</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.136891241460732</v>
+        <v>0.1368912414607319</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09626413286379475</v>
+        <v>0.09798242035160236</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1834557510987977</v>
+        <v>0.1866790321933897</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>99</v>
@@ -8199,19 +8199,19 @@
         <v>95810</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>78717</v>
+        <v>78479</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>115122</v>
+        <v>114104</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1458034442576571</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1197922975187209</v>
+        <v>0.1194291738525667</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1751926760685014</v>
+        <v>0.1736441116310061</v>
       </c>
     </row>
     <row r="14">
@@ -8228,19 +8228,19 @@
         <v>12732</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6860</v>
+        <v>6838</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>21528</v>
+        <v>21952</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02707404759176918</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01458783942201474</v>
+        <v>0.01454064724471664</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04578007163457465</v>
+        <v>0.04668198572654109</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -8249,19 +8249,19 @@
         <v>2265</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6449</v>
+        <v>6247</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01212032049532296</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.003538325344526041</v>
+        <v>0.003542017021659499</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0345114753471471</v>
+        <v>0.0334339042293194</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>15</v>
@@ -8270,19 +8270,19 @@
         <v>14997</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>8430</v>
+        <v>7982</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>24273</v>
+        <v>24654</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02282173756955095</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01282831479123233</v>
+        <v>0.01214666230613173</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03693887653823792</v>
+        <v>0.03751807852931747</v>
       </c>
     </row>
     <row r="15">
@@ -8374,19 +8374,19 @@
         <v>956738</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>928231</v>
+        <v>927954</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>983708</v>
+        <v>982222</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.8487664170886922</v>
+        <v>0.8487664170886923</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8234766116722225</v>
+        <v>0.823230965371888</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8726926744975668</v>
+        <v>0.8713743635365933</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1094</v>
@@ -8395,19 +8395,19 @@
         <v>745004</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>723838</v>
+        <v>723511</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>763879</v>
+        <v>762427</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8658272360299182</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8412287200840652</v>
+        <v>0.8408485509503634</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8877643474579353</v>
+        <v>0.88607579830145</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2059</v>
@@ -8416,19 +8416,19 @@
         <v>1701742</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1669047</v>
+        <v>1665861</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1733719</v>
+        <v>1733823</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.8561519880314152</v>
+        <v>0.8561519880314153</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8397030309614659</v>
+        <v>0.8381002096323319</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8722400184533927</v>
+        <v>0.8722920609804653</v>
       </c>
     </row>
     <row r="17">
@@ -8445,19 +8445,19 @@
         <v>154318</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>129513</v>
+        <v>130504</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>182823</v>
+        <v>183735</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1369026750938456</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.114897070047837</v>
+        <v>0.1157762709377744</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1621909644518999</v>
+        <v>0.1629993759093543</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>121</v>
@@ -8466,19 +8466,19 @@
         <v>102983</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>84725</v>
+        <v>86486</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>121688</v>
+        <v>124638</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1196844031969394</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09846559953286464</v>
+        <v>0.1005116186431888</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1414237501177373</v>
+        <v>0.1448513584003631</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>256</v>
@@ -8487,19 +8487,19 @@
         <v>257301</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>226927</v>
+        <v>226059</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>290697</v>
+        <v>291145</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1294489432979815</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1141679845150311</v>
+        <v>0.1137311712019745</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1462508544124194</v>
+        <v>0.1464759573339572</v>
       </c>
     </row>
     <row r="18">
@@ -8516,19 +8516,19 @@
         <v>16154</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9327</v>
+        <v>8893</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>26899</v>
+        <v>26596</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.01433090781746216</v>
+        <v>0.01433090781746215</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.008274194357681128</v>
+        <v>0.007889756592755138</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02386347560431475</v>
+        <v>0.02359457842608205</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>14</v>
@@ -8537,19 +8537,19 @@
         <v>12467</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6509</v>
+        <v>6723</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>21610</v>
+        <v>21725</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01448836077314246</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.007564838281384243</v>
+        <v>0.007812798793842567</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02511453927693492</v>
+        <v>0.02524795757077637</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>28</v>
@@ -8558,19 +8558,19 @@
         <v>28620</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>18353</v>
+        <v>19452</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>40422</v>
+        <v>40800</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01439906867060317</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.009233524281911746</v>
+        <v>0.009786146719264283</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.02033661265072163</v>
+        <v>0.02052667255794841</v>
       </c>
     </row>
     <row r="19">
@@ -8662,19 +8662,19 @@
         <v>458464</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>435091</v>
+        <v>431855</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>479581</v>
+        <v>477609</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8093532672746314</v>
+        <v>0.8093532672746315</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7680921712127129</v>
+        <v>0.7623787858609997</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8466325236745338</v>
+        <v>0.8431518061943333</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1128</v>
@@ -8683,19 +8683,19 @@
         <v>717765</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>700348</v>
+        <v>700201</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>732501</v>
+        <v>733756</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8646830731568764</v>
+        <v>0.8646830731568765</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8437011843952952</v>
+        <v>0.8435236337966282</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8824362241562093</v>
+        <v>0.8839472486709633</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1582</v>
@@ -8704,19 +8704,19 @@
         <v>1176229</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1146517</v>
+        <v>1145262</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1202819</v>
+        <v>1201449</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8422406054150772</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.820965041745884</v>
+        <v>0.8200666045584587</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.861280263909554</v>
+        <v>0.8602993500969613</v>
       </c>
     </row>
     <row r="21">
@@ -8733,19 +8733,19 @@
         <v>97140</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>77432</v>
+        <v>77817</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>119219</v>
+        <v>122730</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1714876159218533</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1366945302805536</v>
+        <v>0.1373750554620367</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2104645653701067</v>
+        <v>0.2166625548861686</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>135</v>
@@ -8754,19 +8754,19 @@
         <v>93930</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>79550</v>
+        <v>79074</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>109763</v>
+        <v>110884</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1131561677159205</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.09583286599128406</v>
+        <v>0.09525931144396542</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1322300117331901</v>
+        <v>0.1335809430848744</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>217</v>
@@ -8775,19 +8775,19 @@
         <v>191070</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>164870</v>
+        <v>165837</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>218127</v>
+        <v>217791</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.136816139476533</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1180554669093801</v>
+        <v>0.1187477324951591</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1561904361459018</v>
+        <v>0.1559496270170064</v>
       </c>
     </row>
     <row r="22">
@@ -8804,19 +8804,19 @@
         <v>10853</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5121</v>
+        <v>5005</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>21332</v>
+        <v>20825</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01915911680351511</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.009040708885279814</v>
+        <v>0.008836436780788192</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0376577770757143</v>
+        <v>0.0367632131047245</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>26</v>
@@ -8825,19 +8825,19 @@
         <v>18395</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12359</v>
+        <v>12023</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>26811</v>
+        <v>27603</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02216075912720299</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01488877479573547</v>
+        <v>0.01448451159171066</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03229938893438007</v>
+        <v>0.03325279624882706</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>35</v>
@@ -8846,19 +8846,19 @@
         <v>29248</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>20743</v>
+        <v>20546</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>41762</v>
+        <v>42413</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02094325510838984</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01485320523164855</v>
+        <v>0.01471198613836764</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0299038015507802</v>
+        <v>0.03036981374297987</v>
       </c>
     </row>
     <row r="23">
@@ -8950,19 +8950,19 @@
         <v>184238</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>160249</v>
+        <v>161422</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>201839</v>
+        <v>201803</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.776626357920709</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.6755050919871256</v>
+        <v>0.6804513953112103</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8508249200305976</v>
+        <v>0.8506701335480842</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1028</v>
@@ -8971,19 +8971,19 @@
         <v>737427</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>717113</v>
+        <v>715178</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>756417</v>
+        <v>756205</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.874068544359594</v>
+        <v>0.8740685443595941</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.8499900758121426</v>
+        <v>0.8476969153503686</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8965768866525288</v>
+        <v>0.8963261512938538</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1117</v>
@@ -8992,19 +8992,19 @@
         <v>921665</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>891289</v>
+        <v>891142</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>950407</v>
+        <v>949915</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.8526826771178211</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.8245802464184884</v>
+        <v>0.8244446251162397</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.8792736534727076</v>
+        <v>0.8788181832335091</v>
       </c>
     </row>
     <row r="25">
@@ -9021,19 +9021,19 @@
         <v>49932</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>32782</v>
+        <v>32559</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>75793</v>
+        <v>73001</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2104802969851557</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1381865231014509</v>
+        <v>0.1372496482963059</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3194950941319798</v>
+        <v>0.3077245764623288</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>123</v>
@@ -9042,19 +9042,19 @@
         <v>101651</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>83442</v>
+        <v>83095</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>122591</v>
+        <v>124778</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.120486308326051</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09890366530780718</v>
+        <v>0.0984924879941486</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1453068842971246</v>
+        <v>0.1478987999847338</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>145</v>
@@ -9063,19 +9063,19 @@
         <v>151583</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>123211</v>
+        <v>125031</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>180164</v>
+        <v>182045</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1402375019759219</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1139895160023956</v>
+        <v>0.1156728975879008</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1666794241104132</v>
+        <v>0.1684200733821997</v>
       </c>
     </row>
     <row r="26">
@@ -9095,7 +9095,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>15252</v>
+        <v>13646</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0128933450941353</v>
@@ -9104,7 +9104,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.06429388335568878</v>
+        <v>0.05752110056418322</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>7</v>
@@ -9113,19 +9113,19 @@
         <v>4594</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1936</v>
+        <v>1814</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>9197</v>
+        <v>8668</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.005445147314354903</v>
+        <v>0.005445147314354904</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.002295138207804845</v>
+        <v>0.002150312595776725</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01090062225587554</v>
+        <v>0.0102737419049621</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8</v>
@@ -9134,19 +9134,19 @@
         <v>7653</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3239</v>
+        <v>3491</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>18483</v>
+        <v>21177</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.007079820906257061</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.002996144438117744</v>
+        <v>0.00323011231347963</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01709976407867452</v>
+        <v>0.01959190438157025</v>
       </c>
     </row>
     <row r="27">
@@ -9238,19 +9238,19 @@
         <v>2854249</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2800268</v>
+        <v>2802071</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2902783</v>
+        <v>2908480</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8309360364777726</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.815220783961315</v>
+        <v>0.8157456994122892</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8450652106221889</v>
+        <v>0.846723815745388</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>4627</v>
@@ -9259,19 +9259,19 @@
         <v>3151921</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3112257</v>
+        <v>3112336</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>3186936</v>
+        <v>3191080</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.8676694370150596</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.856750684229579</v>
+        <v>0.8567722787601287</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8773084772024837</v>
+        <v>0.8784491008627416</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>7431</v>
@@ -9280,19 +9280,19 @@
         <v>6006171</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5938930</v>
+        <v>5944640</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>6070040</v>
+        <v>6067146</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.8498163683776105</v>
+        <v>0.8498163683776103</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.840302494684205</v>
+        <v>0.8411103660996605</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8588532948046474</v>
+        <v>0.8584437956254335</v>
       </c>
     </row>
     <row r="29">
@@ -9309,19 +9309,19 @@
         <v>522564</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>475815</v>
+        <v>469840</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>573479</v>
+        <v>574651</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1521300124482924</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1385203695683276</v>
+        <v>0.1367809430388401</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1669525342568814</v>
+        <v>0.167293912492796</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>546</v>
@@ -9330,19 +9330,19 @@
         <v>427862</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>392994</v>
+        <v>391484</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>463378</v>
+        <v>466285</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1177831153507671</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1081844027360195</v>
+        <v>0.1077689154673044</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.127559853462246</v>
+        <v>0.128360226532345</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>987</v>
@@ -9351,19 +9351,19 @@
         <v>950426</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>887478</v>
+        <v>890794</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1016588</v>
+        <v>1012615</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1344763019982457</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1255697088240603</v>
+        <v>0.1260389655080072</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1438375264656394</v>
+        <v>0.1432754063638078</v>
       </c>
     </row>
     <row r="30">
@@ -9380,19 +9380,19 @@
         <v>58168</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>41137</v>
+        <v>42845</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>78357</v>
+        <v>77824</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01693395107393512</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01197584799663537</v>
+        <v>0.012473213298288</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.02281155133309548</v>
+        <v>0.02265620506934317</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>67</v>
@@ -9401,19 +9401,19 @@
         <v>52845</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>40966</v>
+        <v>40306</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>67903</v>
+        <v>67513</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01454744763417315</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01127735332358413</v>
+        <v>0.01109544955570381</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.0186925641586091</v>
+        <v>0.01858505476509842</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>115</v>
@@ -9422,19 +9422,19 @@
         <v>111013</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>91099</v>
+        <v>91787</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>135533</v>
+        <v>134045</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01570732962414384</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01288958114973624</v>
+        <v>0.01298699882087899</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.019176644864898</v>
+        <v>0.01896607615209887</v>
       </c>
     </row>
     <row r="31">
